--- a/public/data/products.xlsx
+++ b/public/data/products.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -333,7 +333,7 @@
     <t>products/forerunner55/basic-42mm-white.png,products/forerunner55/basic-42mm-aqua.png,products/forerunner55/basic-42mm-gray.png</t>
   </si>
   <si>
-    <t>1.04" (26.3 mm)</t>
+    <t>1.04” (26.3 mm)</t>
   </si>
   <si>
     <t>GNSS</t>
@@ -372,7 +372,7 @@
     <t>products/forerunner165/music-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
   </si>
   <si>
-    <t>1.2" (30.4 mm)</t>
+    <t>1.2” (30.4 mm)</t>
   </si>
   <si>
     <t>39g</t>
@@ -425,7 +425,7 @@
     <t>products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
   </si>
   <si>
-    <t>1.3" (32.5 mm)</t>
+    <t>1.3” (32.5 mm)</t>
   </si>
   <si>
     <t>47g</t>
@@ -449,7 +449,7 @@
     <t>products/forerunner265s/s-46mm-black.png,products/forerunner265s/s-46mm-pink.png</t>
   </si>
   <si>
-    <t>1.1" (28.1 mm)</t>
+    <t>1.1” (28.1 mm)</t>
   </si>
   <si>
     <t>퀵릴리즈18mm</t>
@@ -479,7 +479,7 @@
     <t>products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
   </si>
   <si>
-    <t>1.4" (35.4 mm)</t>
+    <t>1.4” (35.4 mm)</t>
   </si>
   <si>
     <t>53g</t>
@@ -521,7 +521,7 @@
     <t>products/approachS70/basic-42mm-white.png</t>
   </si>
   <si>
-    <t>1.4" (35.41 mm)</t>
+    <t>1.4” (35.41 mm)</t>
   </si>
   <si>
     <t>56g</t>
@@ -557,7 +557,7 @@
     <t>products/approachs70gc/gc-42mm-white.png</t>
   </si>
   <si>
-    <t>1.2"(32.02mm)</t>
+    <t>1.2”(32.02mm)</t>
   </si>
   <si>
     <t>44g</t>
@@ -581,7 +581,7 @@
     <t>products/approachs50/basic-43mm-ivory.png</t>
   </si>
   <si>
-    <t>1.2"(30.4mm)</t>
+    <t>1.2”(30.4mm)</t>
   </si>
   <si>
     <t>29g</t>
@@ -617,7 +617,7 @@
     <t>흑백 MIP</t>
   </si>
   <si>
-    <t>0.9"(23 x 23mm)</t>
+    <t>0.9”(23 x 23mm)</t>
   </si>
   <si>
     <t>61g</t>
@@ -662,9 +662,6 @@
     <t>products/descentmk3/basic-43mm-gray.png</t>
   </si>
   <si>
-    <t>1.2” (30.4 mm)</t>
-  </si>
-  <si>
     <t>72g</t>
   </si>
   <si>
@@ -713,13 +710,13 @@
     <t>프리미엄 GPS 다이빙 컴퓨터</t>
   </si>
   <si>
-    <t>3" (inch)</t>
+    <t>3” (inch)</t>
   </si>
   <si>
     <t>products/descentx50i/basic-3inch-black.png</t>
   </si>
   <si>
-    <t>3.0"</t>
+    <t>3.0”</t>
   </si>
   <si>
     <t>280g</t>
@@ -776,7 +773,7 @@
     <t>products/instinct3/amoled-45mm-black.png</t>
   </si>
   <si>
-    <t>1.2" (30 mm)</t>
+    <t>1.2” (30 mm)</t>
   </si>
   <si>
     <t>18일</t>
@@ -794,7 +791,7 @@
     <t>products/instinct3/amoled-50mm-black.png</t>
   </si>
   <si>
-    <t>1.3" (33 mm)</t>
+    <t>1.3” (33 mm)</t>
   </si>
   <si>
     <t>59g</t>
@@ -1025,7 +1022,7 @@
     <t>main_img , sub_img</t>
   </si>
   <si>
-    <t>각 제품의 "products/fenix/속성명-사이즈-색상.png" 으로 경로 통일</t>
+    <t>각 제품의 ”products/fenix/속성명-사이즈-색상.png” 으로 경로 통일</t>
   </si>
   <si>
     <t>디센트 MK3, MK3i, X50i 작성 (특이점 / X50i 화면 크기 mm 표기 불가)</t>
@@ -4664,7 +4661,7 @@
         <v>48</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="P21" s="19" t="b">
         <v>1</v>
@@ -4673,16 +4670,16 @@
         <v>50</v>
       </c>
       <c r="R21" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S21" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="T21" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V21" s="24" t="b">
         <v>1</v>
@@ -4747,7 +4744,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>187</v>
@@ -4772,10 +4769,10 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="N22" s="28" t="s">
         <v>48</v>
@@ -4790,10 +4787,10 @@
         <v>50</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>53</v>
@@ -4850,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM22" s="35" t="s">
         <v>218</v>
-      </c>
-      <c r="AM22" s="35" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
@@ -4864,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>187</v>
@@ -4873,10 +4870,10 @@
         <v>206</v>
       </c>
       <c r="F23" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>68</v>
@@ -4889,16 +4886,16 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="N23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="P23" s="19" t="b">
         <v>1</v>
@@ -4907,10 +4904,10 @@
         <v>50</v>
       </c>
       <c r="R23" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S23" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="T23" s="20" t="s">
         <v>72</v>
@@ -4981,13 +4978,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>76</v>
@@ -4996,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I24" s="46">
         <v>2190000.0</v>
@@ -5006,16 +5003,16 @@
         <v>45638.0</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N24" s="28" t="s">
         <v>48</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P24" s="9" t="b">
         <v>1</v>
@@ -5024,10 +5021,10 @@
         <v>50</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>72</v>
@@ -5084,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM24" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="AM24" s="35" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="1">
@@ -5098,13 +5095,13 @@
         <v>39</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>76</v>
@@ -5125,7 +5122,7 @@
         <v>45259.0</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="36" t="s">
@@ -5141,10 +5138,10 @@
         <v>50</v>
       </c>
       <c r="R25" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="S25" s="20" t="s">
         <v>237</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>238</v>
       </c>
       <c r="T25" s="20" t="s">
         <v>53</v>
@@ -5201,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM25" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="AM25" s="25" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -5215,13 +5212,13 @@
         <v>39</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>76</v>
@@ -5240,7 +5237,7 @@
         <v>45692.0</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="28" t="s">
@@ -5259,7 +5256,7 @@
         <v>51</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>53</v>
@@ -5316,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM26" s="35" t="s">
         <v>56</v>
@@ -5330,13 +5327,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>76</v>
@@ -5355,14 +5352,14 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="36" t="s">
         <v>48</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P27" s="16" t="b">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>150</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T27" s="20" t="s">
         <v>62</v>
@@ -5431,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="AL27" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM27" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="AM27" s="25" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="1">
@@ -5445,13 +5442,13 @@
         <v>39</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>76</v>
@@ -5460,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" s="11">
         <v>739000.0</v>
@@ -5470,14 +5467,14 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="28" t="s">
         <v>48</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P28" s="16" t="b">
         <v>0</v>
@@ -5486,10 +5483,10 @@
         <v>50</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>53</v>
@@ -5546,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM28" s="35" t="s">
         <v>256</v>
-      </c>
-      <c r="AM28" s="35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -5560,13 +5557,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>76</v>
@@ -5585,14 +5582,14 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P29" s="16" t="b">
         <v>0</v>
@@ -5601,10 +5598,10 @@
         <v>50</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T29" s="20" t="s">
         <v>62</v>
@@ -5661,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="AL29" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM29" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="AM29" s="25" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -5675,13 +5672,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>76</v>
@@ -5690,7 +5687,7 @@
         <v>77</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="11">
         <v>669000.0</v>
@@ -5700,14 +5697,14 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P30" s="16" t="b">
         <v>0</v>
@@ -5716,10 +5713,10 @@
         <v>50</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>53</v>
@@ -5776,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="AL30" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM30" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="AM30" s="35" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -5790,13 +5787,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>76</v>
@@ -5805,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I31" s="21">
         <v>459000.0</v>
@@ -5815,14 +5812,14 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P31" s="16" t="b">
         <v>0</v>
@@ -5831,10 +5828,10 @@
         <v>102</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T31" s="20" t="s">
         <v>72</v>
@@ -5894,7 +5891,7 @@
         <v>107</v>
       </c>
       <c r="AM31" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -5905,13 +5902,13 @@
         <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>76</v>
@@ -5930,16 +5927,16 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P32" s="16" t="b">
         <v>0</v>
@@ -5948,10 +5945,10 @@
         <v>102</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>62</v>
@@ -6022,22 +6019,22 @@
         <v>39</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="G33" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="H33" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I33" s="21">
         <v>599000.0</v>
@@ -6049,14 +6046,14 @@
         <v>45047.0</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P33" s="16" t="b">
         <v>0</v>
@@ -6065,10 +6062,10 @@
         <v>50</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S33" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>53</v>
@@ -6125,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="AL33" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="1">
@@ -6139,22 +6136,22 @@
         <v>39</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I34" s="11">
         <v>719000.0</v>
@@ -6166,16 +6163,16 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P34" s="16" t="b">
         <v>0</v>
@@ -6184,10 +6181,10 @@
         <v>50</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T34" s="10" t="s">
         <v>53</v>
@@ -6244,10 +6241,10 @@
         <v>1</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM34" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -6258,22 +6255,22 @@
         <v>39</v>
       </c>
       <c r="C35" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="E35" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="F35" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="G35" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="H35" s="53" t="s">
         <v>296</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>297</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="55"/>
@@ -6281,16 +6278,16 @@
         <v>45594.0</v>
       </c>
       <c r="L35" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="N35" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="O35" s="53" t="s">
         <v>300</v>
-      </c>
-      <c r="O35" s="53" t="s">
-        <v>301</v>
       </c>
       <c r="P35" s="57" t="b">
         <v>1</v>
@@ -6305,7 +6302,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U35" s="53" t="s">
         <v>185</v>
@@ -6362,7 +6359,7 @@
         <v>107</v>
       </c>
       <c r="AM35" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6426,17 +6423,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>305</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>306</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
@@ -6451,14 +6448,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>308</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>309</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
@@ -6473,17 +6470,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>311</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>312</v>
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" s="85"/>
       <c r="L4" s="80"/>
@@ -6494,17 +6491,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>314</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>315</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="84" t="s">
         <v>316</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>317</v>
       </c>
       <c r="K5" s="85"/>
       <c r="L5" s="80"/>
@@ -6515,17 +6512,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="84" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>320</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="80"/>
@@ -6536,17 +6533,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>322</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>323</v>
       </c>
       <c r="K7" s="85"/>
       <c r="L7" s="80"/>
@@ -6557,15 +6554,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="83"/>
       <c r="G8" s="84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K8" s="85"/>
       <c r="L8" s="80"/>
@@ -6577,10 +6574,10 @@
       <c r="D9" s="90"/>
       <c r="E9" s="66"/>
       <c r="F9" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="84" t="s">
         <v>326</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>327</v>
       </c>
       <c r="K9" s="85"/>
       <c r="L9" s="80"/>
@@ -6592,10 +6589,10 @@
       <c r="D10" s="76"/>
       <c r="E10" s="66"/>
       <c r="F10" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="84" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>329</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="80"/>

--- a/public/data/products.xlsx
+++ b/public/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -149,7 +149,7 @@
     <t>gpsOnly</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 51mm</t>
+    <t>Fenix 8 AMOLED (51mm)</t>
   </si>
   <si>
     <t>멀티스포츠,아웃도어</t>
@@ -200,7 +200,7 @@
     <t>84시간</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 47mm</t>
+    <t>Fenix 8 AMOLED (47mm)</t>
   </si>
   <si>
     <t>47mm</t>
@@ -224,7 +224,7 @@
     <t>47시간</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 43mm</t>
+    <t>Fenix 8 AMOLED (43mm)</t>
   </si>
   <si>
     <t xml:space="preserve">소프트 골드  </t>
@@ -254,7 +254,7 @@
     <t>28시간</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR - 51mm</t>
+    <t>Fenix 8 SOLAR (51mm)</t>
   </si>
   <si>
     <t>블랙</t>
@@ -278,7 +278,7 @@
     <t>95시간+@</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR - 47mm</t>
+    <t>Fenix 8 SOLAR (47mm)</t>
   </si>
   <si>
     <t xml:space="preserve">블랙 </t>
@@ -293,7 +293,7 @@
     <t>67시간+@</t>
   </si>
   <si>
-    <t>Fenix 7 Pro</t>
+    <t>Fenix 7 Pro - Sapphire Solar</t>
   </si>
   <si>
     <t>고급 GPS 멀티스포츠 스마트워치</t>
@@ -524,7 +524,7 @@
     <t>120시간+@</t>
   </si>
   <si>
-    <t>Approach S70 - 47mm</t>
+    <t>Approach S70 (47mm)</t>
   </si>
   <si>
     <t>골프</t>
@@ -551,13 +551,13 @@
     <t>15시간</t>
   </si>
   <si>
-    <t>Approach S70 GC - 47mm</t>
+    <t>Approach S70 GC (47mm)</t>
   </si>
   <si>
     <t>products/approachs70/gc-47mm-black.png</t>
   </si>
   <si>
-    <t>Approach S70 GC - 42mm</t>
+    <t>Approach S70 GC (42mm)</t>
   </si>
   <si>
     <t>그레이,화이트</t>
@@ -653,6 +653,9 @@
     <t>블랙,쉘핑크</t>
   </si>
   <si>
+    <t>#000000,#ffe8dc</t>
+  </si>
+  <si>
     <t>products/descentG2/basic-45mm-black.png</t>
   </si>
   <si>
@@ -689,7 +692,7 @@
     <t>스테인리스 스틸</t>
   </si>
   <si>
-    <t>Descent MK3i - 51mm</t>
+    <t>Descent MK3i (51mm)</t>
   </si>
   <si>
     <t>products/descentMk3/i-51mm-black.png</t>
@@ -704,7 +707,7 @@
     <t>76시간</t>
   </si>
   <si>
-    <t>Descent MK3i - 43mm</t>
+    <t>Descent MK3i (43mm)</t>
   </si>
   <si>
     <t>블랙,브론즈</t>
@@ -776,7 +779,7 @@
     <t>41일</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED - 45mm</t>
+    <t>Instinct 3 AMOLED (45mm)</t>
   </si>
   <si>
     <t>아웃도어</t>
@@ -797,7 +800,7 @@
     <t>32시간</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED - 50mm</t>
+    <t>Instinct 3 AMOLED (50mm)</t>
   </si>
   <si>
     <t>50mm</t>
@@ -818,7 +821,7 @@
     <t>40시간</t>
   </si>
   <si>
-    <t>Instinct 3 Solar - 45mm</t>
+    <t>Instinct 3 Solar (45mm)</t>
   </si>
   <si>
     <t>products/instinct3/solar-45mm-black.png</t>
@@ -836,7 +839,7 @@
     <t>130시간+@</t>
   </si>
   <si>
-    <t>Instinct 3 Solar - 50mm</t>
+    <t>Instinct 3 Solar (50mm)</t>
   </si>
   <si>
     <t>products/instinct3/solar-50mm-black.png</t>
@@ -854,7 +857,7 @@
     <t>260시간+@</t>
   </si>
   <si>
-    <t>Instinct E - 40mm</t>
+    <t>Instinct E (40mm)</t>
   </si>
   <si>
     <t>아웃도어 GPS 스마트워치</t>
@@ -875,7 +878,7 @@
     <t>21시간</t>
   </si>
   <si>
-    <t>Instinct E - 45mm</t>
+    <t>Instinct E (45mm)</t>
   </si>
   <si>
     <t>products/instinctE/basic-45mm-black.png</t>
@@ -5218,7 +5221,9 @@
       <c r="F21" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>196</v>
       </c>
@@ -5230,10 +5235,10 @@
         <v>45701.0</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" s="35" t="s">
         <v>47</v>
@@ -5257,7 +5262,7 @@
         <v>61</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V21" s="24" t="b">
         <v>1</v>
@@ -5322,19 +5327,19 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>67</v>
@@ -5347,10 +5352,10 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>47</v>
@@ -5365,16 +5370,16 @@
         <v>49</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V22" s="14" t="b">
         <v>1</v>
@@ -5439,13 +5444,13 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>192</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>75</v>
@@ -5464,7 +5469,7 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="35" t="s">
@@ -5480,10 +5485,10 @@
         <v>49</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>52</v>
@@ -5540,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="AL23" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM23" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
@@ -5554,19 +5559,19 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>67</v>
@@ -5579,10 +5584,10 @@
         <v>45308.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>47</v>
@@ -5597,10 +5602,10 @@
         <v>49</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>71</v>
@@ -5671,13 +5676,13 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>75</v>
@@ -5686,7 +5691,7 @@
         <v>76</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I25" s="46">
         <v>2190000.0</v>
@@ -5696,14 +5701,14 @@
         <v>45638.0</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="35" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" s="23" t="b">
         <v>1</v>
@@ -5712,10 +5717,10 @@
         <v>49</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T25" s="19" t="s">
         <v>71</v>
@@ -5772,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM25" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -5786,13 +5791,13 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>75</v>
@@ -5813,7 +5818,7 @@
         <v>45259.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="26" t="s">
@@ -5829,10 +5834,10 @@
         <v>49</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T26" s="9" t="s">
         <v>52</v>
@@ -5889,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="AL26" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM26" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="1">
@@ -5903,13 +5908,13 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>75</v>
@@ -5928,7 +5933,7 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="35" t="s">
@@ -5947,7 +5952,7 @@
         <v>50</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>52</v>
@@ -6004,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM27" s="25" t="s">
         <v>55</v>
@@ -6018,13 +6023,13 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>75</v>
@@ -6043,14 +6048,14 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="26" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P28" s="16" t="b">
         <v>0</v>
@@ -6062,7 +6067,7 @@
         <v>156</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T28" s="9" t="s">
         <v>61</v>
@@ -6119,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM28" s="34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -6133,13 +6138,13 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>75</v>
@@ -6148,7 +6153,7 @@
         <v>76</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I29" s="20">
         <v>739000.0</v>
@@ -6158,14 +6163,14 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="35" t="s">
         <v>47</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" s="16" t="b">
         <v>0</v>
@@ -6174,10 +6179,10 @@
         <v>49</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>52</v>
@@ -6234,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="AL29" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM29" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -6248,13 +6253,13 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>75</v>
@@ -6273,14 +6278,14 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P30" s="16" t="b">
         <v>0</v>
@@ -6289,10 +6294,10 @@
         <v>49</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T30" s="9" t="s">
         <v>61</v>
@@ -6349,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="AL30" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM30" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -6363,13 +6368,13 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>75</v>
@@ -6378,7 +6383,7 @@
         <v>76</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I31" s="20">
         <v>669000.0</v>
@@ -6388,14 +6393,14 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="23"/>
       <c r="N31" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P31" s="16" t="b">
         <v>0</v>
@@ -6404,10 +6409,10 @@
         <v>49</v>
       </c>
       <c r="R31" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>52</v>
@@ -6464,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="AL31" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -6478,13 +6483,13 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>75</v>
@@ -6493,7 +6498,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I32" s="10">
         <v>459000.0</v>
@@ -6503,14 +6508,14 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P32" s="16" t="b">
         <v>0</v>
@@ -6519,10 +6524,10 @@
         <v>109</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>71</v>
@@ -6582,7 +6587,7 @@
         <v>114</v>
       </c>
       <c r="AM32" s="34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="1">
@@ -6593,13 +6598,13 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>75</v>
@@ -6618,16 +6623,16 @@
         <v>45692.0</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P33" s="16" t="b">
         <v>0</v>
@@ -6636,10 +6641,10 @@
         <v>109</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>61</v>
@@ -6710,22 +6715,22 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I34" s="10">
         <v>599000.0</v>
@@ -6737,14 +6742,14 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P34" s="16" t="b">
         <v>0</v>
@@ -6753,10 +6758,10 @@
         <v>49</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T34" s="9" t="s">
         <v>52</v>
@@ -6813,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="AL34" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM34" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -6827,22 +6832,22 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I35" s="20">
         <v>719000.0</v>
@@ -6854,16 +6859,16 @@
         <v>45047.0</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P35" s="16" t="b">
         <v>0</v>
@@ -6872,10 +6877,10 @@
         <v>49</v>
       </c>
       <c r="R35" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>52</v>
@@ -6932,10 +6937,10 @@
         <v>1</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM35" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
@@ -6946,22 +6951,22 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I36" s="54">
         <v>459000.0</v>
@@ -6971,16 +6976,16 @@
         <v>45594.0</v>
       </c>
       <c r="L36" s="53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M36" s="53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N36" s="53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O36" s="53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P36" s="57" t="b">
         <v>1</v>
@@ -6995,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="T36" s="53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U36" s="53" t="s">
         <v>190</v>
@@ -7052,7 +7057,7 @@
         <v>114</v>
       </c>
       <c r="AM36" s="62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7165,19 +7170,19 @@
         <v>36</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -7188,16 +7193,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -7209,19 +7214,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O2" s="47" t="b">
         <v>0</v>
@@ -7251,16 +7256,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G3" s="20">
         <v>519000.0</v>
@@ -7270,19 +7275,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O3" s="47" t="b">
         <v>0</v>
@@ -7300,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U3" s="25"/>
     </row>
@@ -7312,16 +7317,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G4" s="28">
         <v>659000.0</v>
@@ -7331,19 +7336,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O4" s="47" t="b">
         <v>0</v>
@@ -7361,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U4" s="31"/>
     </row>
@@ -7373,16 +7378,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G5" s="20">
         <v>659000.0</v>
@@ -7392,19 +7397,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O5" s="47" t="b">
         <v>0</v>
@@ -7422,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U5" s="25"/>
     </row>
@@ -7434,16 +7439,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -7453,19 +7458,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -7483,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U6" s="34"/>
     </row>
@@ -7495,16 +7500,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G7" s="20">
         <v>799000.0</v>
@@ -7514,19 +7519,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O7" s="19" t="b">
         <v>1</v>
@@ -7544,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U7" s="25"/>
     </row>
@@ -7556,16 +7561,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -7577,19 +7582,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -7607,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U8" s="34"/>
     </row>
@@ -7619,16 +7624,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G9" s="20">
         <v>989000.0</v>
@@ -7640,19 +7645,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O9" s="19" t="b">
         <v>1</v>
@@ -7670,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -7682,16 +7687,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -7701,19 +7706,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -7743,16 +7748,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G11" s="20">
         <v>1229000.0</v>
@@ -7762,19 +7767,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O11" s="19" t="b">
         <v>1</v>
@@ -7804,16 +7809,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -7825,12 +7830,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="13"/>
@@ -7839,10 +7844,10 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -7853,16 +7858,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G13" s="20">
         <v>1390000.0</v>
@@ -7874,12 +7879,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="23"/>
@@ -7888,10 +7893,10 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -7902,16 +7907,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -7923,12 +7928,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="13"/>
@@ -7937,10 +7942,10 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -7951,16 +7956,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G15" s="20">
         <v>1390000.0</v>
@@ -7972,12 +7977,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -7986,10 +7991,10 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -8000,16 +8005,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -8021,12 +8026,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="13"/>
@@ -8035,10 +8040,10 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -8049,16 +8054,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G17" s="20">
         <v>1590000.0</v>
@@ -8070,12 +8075,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="23"/>
@@ -8084,10 +8089,10 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -8098,16 +8103,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -8119,15 +8124,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -8136,7 +8141,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="9"/>
       <c r="U18" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -8147,16 +8152,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G19" s="20">
         <v>258000.0</v>
@@ -8166,15 +8171,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -8192,16 +8197,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G20" s="54">
         <v>529000.0</v>
@@ -8211,15 +8216,15 @@
         <v>44682.0</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
@@ -8228,7 +8233,7 @@
       <c r="S20" s="57"/>
       <c r="T20" s="53"/>
       <c r="U20" s="62" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -8331,13 +8336,13 @@
         <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -8348,16 +8353,16 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -8367,19 +8372,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="34"/>
     </row>
@@ -8391,16 +8396,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" s="20">
         <v>69000.0</v>
@@ -8410,19 +8415,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q3" s="25"/>
     </row>
@@ -8434,16 +8439,16 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="28">
         <v>121000.0</v>
@@ -8453,19 +8458,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="31"/>
     </row>
@@ -8477,16 +8482,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G5" s="20">
         <v>89000.0</v>
@@ -8499,16 +8504,16 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="25"/>
     </row>
@@ -8520,16 +8525,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -8542,16 +8547,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="34"/>
     </row>
@@ -8563,16 +8568,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G7" s="20">
         <v>225000.0</v>
@@ -8588,13 +8593,13 @@
         <v>156</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="25"/>
     </row>
@@ -8606,16 +8611,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -8628,19 +8633,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -8649,16 +8654,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G9" s="20">
         <v>398000.0</v>
@@ -8671,19 +8676,19 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -8694,16 +8699,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -8716,19 +8721,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -8739,16 +8744,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G11" s="20">
         <v>789000.0</v>
@@ -8763,13 +8768,13 @@
       <c r="K11" s="35"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>115</v>
@@ -8784,16 +8789,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -8806,13 +8811,13 @@
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>115</v>
@@ -8827,16 +8832,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G13" s="20">
         <v>989000.0</v>
@@ -8851,16 +8856,16 @@
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="25"/>
     </row>
@@ -9093,17 +9098,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="76"/>
       <c r="B2" s="77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
@@ -9118,14 +9123,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="87" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G3" s="88"/>
       <c r="H3" s="88"/>
@@ -9140,17 +9145,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E4" s="76"/>
       <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K4" s="95"/>
       <c r="L4" s="90"/>
@@ -9161,17 +9166,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E5" s="76"/>
       <c r="F5" s="93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="90"/>
@@ -9182,17 +9187,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="93" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K6" s="95"/>
       <c r="L6" s="90"/>
@@ -9203,17 +9208,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E7" s="76"/>
       <c r="F7" s="93" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K7" s="95"/>
       <c r="L7" s="90"/>
@@ -9224,15 +9229,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="93"/>
       <c r="G8" s="94" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K8" s="95"/>
       <c r="L8" s="90"/>
@@ -9243,17 +9248,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="93" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="90"/>
@@ -9265,10 +9270,10 @@
       <c r="D10" s="86"/>
       <c r="E10" s="76"/>
       <c r="F10" s="93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="90"/>
